--- a/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_MM_Q61H.xlsx
+++ b/tables/20_45_fxnal-enrich-genetic-interactions/enrichr_results_MM_Q61H.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="394">
   <si>
     <t>datasource</t>
   </si>
@@ -245,496 +245,955 @@
     <t>68</t>
   </si>
   <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>WikiPathways_2019_Human</t>
+  </si>
+  <si>
     <t>Panther_2016</t>
   </si>
   <si>
+    <t>Reactome_2016</t>
+  </si>
+  <si>
+    <t>GO_Biological_Process_2018</t>
+  </si>
+  <si>
     <t>KEGG_2019_Human</t>
   </si>
   <si>
-    <t>WikiPathways_2019_Human</t>
-  </si>
-  <si>
-    <t>KEA_2015</t>
+    <t>BioCarta_2016</t>
   </si>
   <si>
     <t>PPI_Hub_Proteins</t>
   </si>
   <si>
+    <t>Transcription_Factor_PPIs</t>
+  </si>
+  <si>
+    <t>Pathways Affected in Adenoid Cystic Carcinoma WP3651</t>
+  </si>
+  <si>
     <t>Wnt signaling pathway_Homo sapiens_P00057</t>
   </si>
   <si>
+    <t>Defective GALNT3 causes familial hyperphosphatemic tumoral calcinosis (HFTC)_Homo sapiens_R-HSA-5083625</t>
+  </si>
+  <si>
+    <t>Defective C1GALT1C1 causes Tn polyagglutination syndrome (TNPS)_Homo sapiens_R-HSA-5083632</t>
+  </si>
+  <si>
+    <t>Defective GALNT12 causes colorectal cancer 1 (CRCS1)_Homo sapiens_R-HSA-5083636</t>
+  </si>
+  <si>
+    <t>Termination of O-glycan biosynthesis_Homo sapiens_R-HSA-977068</t>
+  </si>
+  <si>
+    <t>homophilic cell adhesion via plasma membrane adhesion molecules (GO:0007156)</t>
+  </si>
+  <si>
+    <t>Diseases associated with O-glycosylation of proteins_Homo sapiens_R-HSA-3906995</t>
+  </si>
+  <si>
+    <t>Bladder Cancer WP2828</t>
+  </si>
+  <si>
+    <t>Extracellular matrix organization_Homo sapiens_R-HSA-1474244</t>
+  </si>
+  <si>
+    <t>Diseases of glycosylation_Homo sapiens_R-HSA-3781865</t>
+  </si>
+  <si>
+    <t>Bladder cancer</t>
+  </si>
+  <si>
+    <t>Human papillomavirus infection</t>
+  </si>
+  <si>
+    <t>Assembly of collagen fibrils and other multimeric structures_Homo sapiens_R-HSA-2022090</t>
+  </si>
+  <si>
+    <t>O-linked glycosylation_Homo sapiens_R-HSA-5173105</t>
+  </si>
+  <si>
+    <t>Hypoxia and p53 in the Cardiovascular system_Homo sapiens_h_p53hypoxiaPathway</t>
+  </si>
+  <si>
+    <t>Endometrial cancer WP4155</t>
+  </si>
+  <si>
+    <t>Chronic myeloid leukemia</t>
+  </si>
+  <si>
+    <t>Thyroid cancer</t>
+  </si>
+  <si>
+    <t>Cadherin signaling pathway_Homo sapiens_P00012</t>
+  </si>
+  <si>
+    <t>O-linked glycosylation of mucins_Homo sapiens_R-HSA-913709</t>
+  </si>
+  <si>
     <t>Gastric cancer</t>
   </si>
   <si>
-    <t>Bladder cancer</t>
-  </si>
-  <si>
-    <t>Thyroid cancer</t>
+    <t>LncRNA-mediated mechanisms of therapeutic resistance WP3672</t>
+  </si>
+  <si>
+    <t>MicroRNAs in cancer</t>
+  </si>
+  <si>
+    <t>Cell-Cell communication_Homo sapiens_R-HSA-1500931</t>
+  </si>
+  <si>
+    <t>p53 pathway feedback loops 2_Homo sapiens_P04398</t>
+  </si>
+  <si>
+    <t>Negative regulation of FGFR3 signaling_Homo sapiens_R-HSA-5654732</t>
+  </si>
+  <si>
+    <t>PI3K-Akt signaling pathway</t>
+  </si>
+  <si>
+    <t>Signaling Pathways in Glioblastoma WP2261</t>
+  </si>
+  <si>
+    <t>VEGF signaling pathway_Homo sapiens_P00056</t>
+  </si>
+  <si>
+    <t>Collagen formation_Homo sapiens_R-HSA-1474290</t>
+  </si>
+  <si>
+    <t>Long-term depression</t>
+  </si>
+  <si>
+    <t>Rap1 signaling pathway</t>
+  </si>
+  <si>
+    <t>Cytoskeletal regulation by Rho GTPase_Homo sapiens_P00016</t>
+  </si>
+  <si>
+    <t>Apoptosis</t>
+  </si>
+  <si>
+    <t>Long-term potentiation</t>
+  </si>
+  <si>
+    <t>Melanoma</t>
+  </si>
+  <si>
+    <t>Renal cell carcinoma</t>
+  </si>
+  <si>
+    <t>Neurotrophin signaling pathway</t>
+  </si>
+  <si>
+    <t>Endometrial cancer</t>
+  </si>
+  <si>
+    <t>Non-small cell lung cancer</t>
+  </si>
+  <si>
+    <t>Type I hemidesmosome assembly_Homo sapiens_R-HSA-446107</t>
+  </si>
+  <si>
+    <t>Nicotinic acetylcholine receptor signaling pathway_Homo sapiens_P00044</t>
+  </si>
+  <si>
+    <t>Glioma</t>
+  </si>
+  <si>
+    <t>Central carbon metabolism in cancer</t>
+  </si>
+  <si>
+    <t>Hepatitis C</t>
+  </si>
+  <si>
+    <t>Integrin signalling pathway_Homo sapiens_P00034</t>
   </si>
   <si>
     <t>Hepatitis B</t>
   </si>
   <si>
-    <t>Chronic myeloid leukemia</t>
-  </si>
-  <si>
-    <t>Melanoma</t>
-  </si>
-  <si>
-    <t>Long-term potentiation</t>
-  </si>
-  <si>
-    <t>Glioma</t>
-  </si>
-  <si>
-    <t>Non-small cell lung cancer</t>
-  </si>
-  <si>
-    <t>Cadherin signaling pathway_Homo sapiens_P00012</t>
-  </si>
-  <si>
-    <t>Long-term depression</t>
-  </si>
-  <si>
-    <t>Hepatitis C</t>
+    <t>Signaling by FGFR3 fusions in cancer_Homo sapiens_R-HSA-8853334</t>
+  </si>
+  <si>
+    <t>ECM-receptor interaction</t>
   </si>
   <si>
     <t>Colorectal cancer</t>
   </si>
   <si>
-    <t>Endometrial cancer</t>
-  </si>
-  <si>
-    <t>Bladder Cancer WP2828</t>
+    <t>PRKCB</t>
+  </si>
+  <si>
+    <t>DSCAM interactions_Homo sapiens_R-HSA-376172</t>
+  </si>
+  <si>
+    <t>cell-cell adhesion via plasma-membrane adhesion molecules (GO:0098742)</t>
+  </si>
+  <si>
+    <t>CTNNB1</t>
+  </si>
+  <si>
+    <t>Small cell lung cancer</t>
+  </si>
+  <si>
+    <t>TP53 Regulates Transcription of Caspase Activators and Caspases_Homo sapiens_R-HSA-6803207</t>
+  </si>
+  <si>
+    <t>PI3K-Akt Signaling Pathway WP4172</t>
   </si>
   <si>
     <t>Prostate cancer</t>
   </si>
   <si>
-    <t>LncRNA-mediated mechanisms of therapeutic resistance WP3672</t>
+    <t>Hematopoietic Stem Cell Gene Regulation by GABP alpha/beta Complex WP3657</t>
+  </si>
+  <si>
+    <t>Brain-Derived Neurotrophic Factor (BDNF) signaling pathway WP2380</t>
+  </si>
+  <si>
+    <t>RAC1/PAK1/p38/MMP2 Pathway WP3303</t>
+  </si>
+  <si>
+    <t>TP53 Network WP1742</t>
+  </si>
+  <si>
+    <t>miRNA regulation of p53 pathway in prostate cancer WP3982</t>
+  </si>
+  <si>
+    <t>Regulation of cell cycle progression by Plk3_Homo sapiens_h_plk3Pathway</t>
+  </si>
+  <si>
+    <t>Breast cancer pathway WP4262</t>
+  </si>
+  <si>
+    <t>Apoptotic Signaling in Response to DNA Damage_Homo sapiens_h_chemicalPathway</t>
+  </si>
+  <si>
+    <t>Inflammation mediated by chemokine and cytokine signaling pathway_Homo sapiens_P00031</t>
+  </si>
+  <si>
+    <t>Serotonin Receptor 4/6/7 and NR3C Signaling WP734</t>
+  </si>
+  <si>
+    <t>Tumor Suppressor Arf Inhibits Ribosomal Biogenesis_Homo sapiens_h_arfPathway</t>
+  </si>
+  <si>
+    <t>Proteoglycans in cancer</t>
+  </si>
+  <si>
+    <t>Focal adhesion</t>
+  </si>
+  <si>
+    <t>Parathyroid hormone synthesis, secretion and action</t>
+  </si>
+  <si>
+    <t>Role of BRCA1,  BRCA2 and ATR in Cancer Susceptibility_Homo sapiens_h_atrbrcaPathway</t>
   </si>
   <si>
     <t>Non-small cell lung cancer WP4255</t>
   </si>
   <si>
-    <t>Signaling Pathways in Glioblastoma WP2261</t>
-  </si>
-  <si>
-    <t>Pathways Affected in Adenoid Cystic Carcinoma WP3651</t>
-  </si>
-  <si>
-    <t>Neurotrophin signaling pathway</t>
-  </si>
-  <si>
-    <t>Serotonin Receptor 4/6/7 and NR3C Signaling WP734</t>
+    <t>MET in type 1 papillary renal cell carcinoma WP4205</t>
+  </si>
+  <si>
+    <t>miRNAs involved in DNA damage response WP1545</t>
+  </si>
+  <si>
+    <t>Cell Cycle: G1/S Check Point _Homo sapiens_h_g1Pathway</t>
+  </si>
+  <si>
+    <t>Oncostatin M Signaling Pathway WP2374</t>
+  </si>
+  <si>
+    <t>DNA Damage/Telomere Stress Induced Senescence_Homo sapiens_R-HSA-2559586</t>
+  </si>
+  <si>
+    <t>Translocation of GLUT4 to the plasma membrane_Homo sapiens_R-HSA-1445148</t>
+  </si>
+  <si>
+    <t>Activation of IRF3/IRF7 mediated by TBK1/IKK epsilon_Homo sapiens_R-HSA-936964</t>
+  </si>
+  <si>
+    <t>Axon guidance_Homo sapiens_R-HSA-422475</t>
+  </si>
+  <si>
+    <t>Cell Cycle: G2/M Checkpoint_Homo sapiens_h_g2Pathway</t>
   </si>
   <si>
     <t>Inhibition of exosome biogenesis and secretion by Manumycin A in CRPC cells WP4301</t>
   </si>
   <si>
+    <t>ATM Signaling Pathway_Homo sapiens_h_atmPathway</t>
+  </si>
+  <si>
+    <t>Formation of Senescence-Associated Heterochromatin Foci (SAHF)_Homo sapiens_R-HSA-2559584</t>
+  </si>
+  <si>
+    <t>Post-translational protein modification_Homo sapiens_R-HSA-597592</t>
+  </si>
+  <si>
+    <t>Spry regulation of FGF signaling_Homo sapiens_R-HSA-1295596</t>
+  </si>
+  <si>
+    <t>TP53 Regulates Transcription of Genes Involved in Cytochrome C Release_Homo sapiens_R-HSA-6803204</t>
+  </si>
+  <si>
+    <t>Tie2 Signaling_Homo sapiens_R-HSA-210993</t>
+  </si>
+  <si>
+    <t>RB Tumor Suppressor/Checkpoint Signaling in response to DNA damage_Homo sapiens_h_rbPathway</t>
+  </si>
+  <si>
+    <t>Human T-cell leukemia virus 1 infection</t>
+  </si>
+  <si>
+    <t>Regulation of TP53 Activity through Methylation_Homo sapiens_R-HSA-6804760</t>
+  </si>
+  <si>
+    <t>Interferon alpha/beta signaling_Homo sapiens_R-HSA-909733</t>
+  </si>
+  <si>
+    <t>SHC-mediated cascade:FGFR3_Homo sapiens_R-HSA-5654704</t>
+  </si>
+  <si>
     <t>ErbB Signaling Pathway WP673</t>
   </si>
   <si>
-    <t>Endometrial cancer WP4155</t>
-  </si>
-  <si>
-    <t>MicroRNAs in cancer</t>
-  </si>
-  <si>
-    <t>Breast cancer</t>
-  </si>
-  <si>
     <t>MAPK Cascade WP422</t>
   </si>
   <si>
-    <t>Amyotrophic lateral sclerosis (ALS)</t>
-  </si>
-  <si>
-    <t>PRKACA</t>
-  </si>
-  <si>
-    <t>Hepatocellular carcinoma</t>
-  </si>
-  <si>
-    <t>BDNF-TrkB Signaling WP3676</t>
-  </si>
-  <si>
-    <t>Alcoholism</t>
-  </si>
-  <si>
-    <t>Renal cell carcinoma</t>
-  </si>
-  <si>
-    <t>Proteoglycans in cancer</t>
-  </si>
-  <si>
-    <t>Kaposi sarcoma-associated herpesvirus infection</t>
-  </si>
-  <si>
-    <t>Acute myeloid leukemia</t>
-  </si>
-  <si>
-    <t>Mitophagy</t>
-  </si>
-  <si>
-    <t>Viral carcinogenesis</t>
-  </si>
-  <si>
-    <t>T cell activation_Homo sapiens_P00053</t>
-  </si>
-  <si>
-    <t>Central carbon metabolism in cancer</t>
-  </si>
-  <si>
-    <t>Cytoskeletal regulation by Rho GTPase_Homo sapiens_P00016</t>
-  </si>
-  <si>
-    <t>Pancreatic cancer</t>
-  </si>
-  <si>
-    <t>Human T-cell leukemia virus 1 infection</t>
-  </si>
-  <si>
-    <t>Integrin signalling pathway_Homo sapiens_P00034</t>
-  </si>
-  <si>
-    <t>VEGF signaling pathway_Homo sapiens_P00056</t>
-  </si>
-  <si>
-    <t>Ras Pathway_Homo sapiens_P04393</t>
-  </si>
-  <si>
-    <t>Interleukin signaling pathway_Homo sapiens_P00036</t>
-  </si>
-  <si>
-    <t>Hypertrophic cardiomyopathy (HCM)</t>
-  </si>
-  <si>
-    <t>DYRK1A</t>
-  </si>
-  <si>
-    <t>ErbB signaling pathway</t>
-  </si>
-  <si>
-    <t>Inflammation mediated by chemokine and cytokine signaling pathway_Homo sapiens_P00031</t>
-  </si>
-  <si>
-    <t>Nicotinic acetylcholine receptor signaling pathway_Homo sapiens_P00044</t>
-  </si>
-  <si>
-    <t>Small cell lung cancer</t>
-  </si>
-  <si>
-    <t>Dilated cardiomyopathy (DCM)</t>
-  </si>
-  <si>
-    <t>PRKCA</t>
-  </si>
-  <si>
-    <t>p53 pathway feedback loops 2_Homo sapiens_P04398</t>
-  </si>
-  <si>
-    <t>GnRH signaling pathway</t>
-  </si>
-  <si>
-    <t>PRKCB</t>
-  </si>
-  <si>
-    <t>MAPK1</t>
-  </si>
-  <si>
-    <t>AGE-RAGE signaling pathway in diabetic complications</t>
-  </si>
-  <si>
-    <t>Longevity regulating pathway</t>
-  </si>
-  <si>
-    <t>PRKACG</t>
+    <t>Disease_Homo sapiens_R-HSA-1643685</t>
+  </si>
+  <si>
+    <t>FRS-mediated FGFR1 signaling_Homo sapiens_R-HSA-5654693</t>
+  </si>
+  <si>
+    <t>MAPK1/MAPK3 signaling_Homo sapiens_R-HSA-5684996</t>
+  </si>
+  <si>
+    <t>Signaling by Leptin_Homo sapiens_R-HSA-2586552</t>
+  </si>
+  <si>
+    <t>Signaling by FGFR3 in disease_Homo sapiens_R-HSA-5655332</t>
+  </si>
+  <si>
+    <t>SHC-mediated cascade:FGFR4_Homo sapiens_R-HSA-5654719</t>
+  </si>
+  <si>
+    <t>FRS-mediated FGFR3 signaling_Homo sapiens_R-HSA-5654706</t>
+  </si>
+  <si>
+    <t>Signaling by FGFR3 point mutants in cancer_Homo sapiens_R-HSA-8853338</t>
+  </si>
+  <si>
+    <t>FRS-mediated FGFR4 signaling_Homo sapiens_R-HSA-5654712</t>
   </si>
   <si>
     <t>HSPA5</t>
   </si>
   <si>
-    <t>Breast cancer pathway WP4262</t>
-  </si>
-  <si>
-    <t>Parathyroid hormone synthesis, secretion and action</t>
-  </si>
-  <si>
-    <t>7/278</t>
+    <t>Ovarian Infertility Genes WP34</t>
+  </si>
+  <si>
+    <t>FRS-mediated FGFR2 signaling_Homo sapiens_R-HSA-5654700</t>
+  </si>
+  <si>
+    <t>Alpha 6 Beta 4 signaling pathway WP244</t>
+  </si>
+  <si>
+    <t>6/65</t>
+  </si>
+  <si>
+    <t>9/278</t>
+  </si>
+  <si>
+    <t>4/18</t>
+  </si>
+  <si>
+    <t>4/20</t>
+  </si>
+  <si>
+    <t>4/26</t>
+  </si>
+  <si>
+    <t>5/62</t>
+  </si>
+  <si>
+    <t>4/40</t>
+  </si>
+  <si>
+    <t>8/283</t>
+  </si>
+  <si>
+    <t>5/88</t>
+  </si>
+  <si>
+    <t>4/41</t>
+  </si>
+  <si>
+    <t>8/330</t>
+  </si>
+  <si>
+    <t>4/54</t>
+  </si>
+  <si>
+    <t>5/110</t>
+  </si>
+  <si>
+    <t>3/21</t>
+  </si>
+  <si>
+    <t>4/63</t>
+  </si>
+  <si>
+    <t>4/76</t>
+  </si>
+  <si>
+    <t>3/37</t>
+  </si>
+  <si>
+    <t>5/150</t>
+  </si>
+  <si>
+    <t>4/66</t>
   </si>
   <si>
     <t>5/149</t>
   </si>
   <si>
-    <t>3/41</t>
-  </si>
-  <si>
-    <t>3/37</t>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>7/299</t>
+  </si>
+  <si>
+    <t>5/131</t>
+  </si>
+  <si>
+    <t>3/45</t>
+  </si>
+  <si>
+    <t>3/29</t>
+  </si>
+  <si>
+    <t>7/354</t>
+  </si>
+  <si>
+    <t>4/82</t>
+  </si>
+  <si>
+    <t>3/54</t>
+  </si>
+  <si>
+    <t>4/85</t>
+  </si>
+  <si>
+    <t>3/60</t>
+  </si>
+  <si>
+    <t>5/206</t>
+  </si>
+  <si>
+    <t>3/70</t>
+  </si>
+  <si>
+    <t>4/143</t>
+  </si>
+  <si>
+    <t>3/67</t>
+  </si>
+  <si>
+    <t>3/72</t>
+  </si>
+  <si>
+    <t>3/69</t>
+  </si>
+  <si>
+    <t>4/119</t>
+  </si>
+  <si>
+    <t>3/58</t>
+  </si>
+  <si>
+    <t>3/66</t>
+  </si>
+  <si>
+    <t>2/9</t>
+  </si>
+  <si>
+    <t>3/68</t>
+  </si>
+  <si>
+    <t>3/75</t>
+  </si>
+  <si>
+    <t>3/65</t>
+  </si>
+  <si>
+    <t>4/155</t>
+  </si>
+  <si>
+    <t>4/156</t>
   </si>
   <si>
     <t>4/163</t>
   </si>
   <si>
-    <t>3/76</t>
-  </si>
-  <si>
-    <t>3/72</t>
-  </si>
-  <si>
-    <t>3/67</t>
-  </si>
-  <si>
-    <t>3/75</t>
-  </si>
-  <si>
-    <t>3/66</t>
-  </si>
-  <si>
-    <t>4/150</t>
-  </si>
-  <si>
-    <t>3/60</t>
-  </si>
-  <si>
-    <t>4/155</t>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3/82</t>
   </si>
   <si>
     <t>3/86</t>
   </si>
   <si>
-    <t>3/58</t>
-  </si>
-  <si>
-    <t>3/40</t>
+    <t>7/338</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>6/143</t>
+  </si>
+  <si>
+    <t>8/398</t>
+  </si>
+  <si>
+    <t>3/93</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>6/340</t>
   </si>
   <si>
     <t>3/97</t>
   </si>
   <si>
-    <t>2/6</t>
-  </si>
-  <si>
-    <t>3/82</t>
-  </si>
-  <si>
-    <t>3/65</t>
-  </si>
-  <si>
-    <t>3/119</t>
+    <t>2/20</t>
+  </si>
+  <si>
+    <t>4/144</t>
   </si>
   <si>
     <t>2/19</t>
   </si>
   <si>
+    <t>2/24</t>
+  </si>
+  <si>
     <t>2/18</t>
   </si>
   <si>
+    <t>4/154</t>
+  </si>
+  <si>
+    <t>2/14</t>
+  </si>
+  <si>
+    <t>4/188</t>
+  </si>
+  <si>
+    <t>2/23</t>
+  </si>
+  <si>
+    <t>4/201</t>
+  </si>
+  <si>
+    <t>4/199</t>
+  </si>
+  <si>
+    <t>7/337</t>
+  </si>
+  <si>
+    <t>3/106</t>
+  </si>
+  <si>
+    <t>2/22</t>
+  </si>
+  <si>
+    <t>3/59</t>
+  </si>
+  <si>
+    <t>2/15</t>
+  </si>
+  <si>
+    <t>2/26</t>
+  </si>
+  <si>
+    <t>8/515</t>
+  </si>
+  <si>
+    <t>2/17</t>
+  </si>
+  <si>
+    <t>8/521</t>
+  </si>
+  <si>
+    <t>2/16</t>
+  </si>
+  <si>
+    <t>2/13</t>
+  </si>
+  <si>
+    <t>4/219</t>
+  </si>
+  <si>
     <t>3/91</t>
   </si>
   <si>
-    <t>3/63</t>
-  </si>
-  <si>
-    <t>4/299</t>
-  </si>
-  <si>
-    <t>3/147</t>
-  </si>
-  <si>
     <t>2/29</t>
   </si>
   <si>
-    <t>2/51</t>
-  </si>
-  <si>
-    <t>6/393</t>
-  </si>
-  <si>
-    <t>3/168</t>
-  </si>
-  <si>
-    <t>2/34</t>
-  </si>
-  <si>
-    <t>3/180</t>
-  </si>
-  <si>
-    <t>2/69</t>
-  </si>
-  <si>
-    <t>3/201</t>
-  </si>
-  <si>
-    <t>3/186</t>
-  </si>
-  <si>
-    <t>2/66</t>
-  </si>
-  <si>
-    <t>2/65</t>
-  </si>
-  <si>
-    <t>2/73</t>
-  </si>
-  <si>
-    <t>2/70</t>
-  </si>
-  <si>
-    <t>2/75</t>
-  </si>
-  <si>
-    <t>3/219</t>
-  </si>
-  <si>
-    <t>3/156</t>
-  </si>
-  <si>
-    <t>2/54</t>
-  </si>
-  <si>
-    <t>2/86</t>
-  </si>
-  <si>
-    <t>2/85</t>
-  </si>
-  <si>
-    <t>3/188</t>
-  </si>
-  <si>
-    <t>2/68</t>
-  </si>
-  <si>
-    <t>6/440</t>
-  </si>
-  <si>
-    <t>2/93</t>
-  </si>
-  <si>
-    <t>2/91</t>
-  </si>
-  <si>
-    <t>6/547</t>
-  </si>
-  <si>
-    <t>2/45</t>
-  </si>
-  <si>
-    <t>5/338</t>
-  </si>
-  <si>
-    <t>4/326</t>
-  </si>
-  <si>
-    <t>2/100</t>
-  </si>
-  <si>
-    <t>2/102</t>
-  </si>
-  <si>
-    <t>3/176</t>
-  </si>
-  <si>
-    <t>3/121</t>
-  </si>
-  <si>
-    <t>3/154</t>
-  </si>
-  <si>
-    <t>2/106</t>
-  </si>
-  <si>
-    <t>PCDHA1;FAT1;FAT2;MYH4;TP53;CDH19;MYH7</t>
+    <t>9/725</t>
+  </si>
+  <si>
+    <t>5/236</t>
+  </si>
+  <si>
+    <t>5/241</t>
+  </si>
+  <si>
+    <t>5/243</t>
+  </si>
+  <si>
+    <t>4/121</t>
+  </si>
+  <si>
+    <t>2/32</t>
+  </si>
+  <si>
+    <t>2/33</t>
+  </si>
+  <si>
+    <t>MAGI1;KMT2C;HIST1H1E;ATM;TP53;FOXP2</t>
+  </si>
+  <si>
+    <t>MYH1;PCDHA1;FAT1;FAT2;MYH4;PCDHA11;TP53;CDH19;MYH7</t>
+  </si>
+  <si>
+    <t>MUC2;MUC16;MUC5B;MUC4</t>
+  </si>
+  <si>
+    <t>TENM3;DSCAM;FAT2;DSCAML1;SDK2;CDH19</t>
+  </si>
+  <si>
+    <t>MUC2;MUC16;MUC5B;ADAMTS9;MUC4</t>
+  </si>
+  <si>
+    <t>NRAS;BRAF;FGFR3;TP53</t>
+  </si>
+  <si>
+    <t>FBN3;TNXB;DST;LAMA1;COL11A2;COL6A6;ADAMTS9;PLEC</t>
+  </si>
+  <si>
+    <t>MAGI1;NRAS;TNXB;TRAF3;LAMA1;COL6A6;ATM;TP53</t>
+  </si>
+  <si>
+    <t>DST;COL11A2;COL6A6;PLEC</t>
+  </si>
+  <si>
+    <t>ABCB1;ATM;TP53</t>
+  </si>
+  <si>
+    <t>NRAS;BRAF;TP53;FGFR3</t>
+  </si>
+  <si>
+    <t>NRAS;PTPN11;BRAF;TP53</t>
+  </si>
+  <si>
+    <t>NRAS;BRAF;TP53</t>
+  </si>
+  <si>
+    <t>PCDHA1;FAT1;FAT2;PCDHA11;CDH19</t>
   </si>
   <si>
     <t>NRAS;ABCB1;MUC2;BRAF;TP53</t>
   </si>
   <si>
-    <t>NRAS;BRAF;TP53</t>
+    <t>ABCB1;TP53</t>
+  </si>
+  <si>
+    <t>NRAS;TNXB;ABCB1;DNMT3A;ATM;TP53;FGFR3</t>
+  </si>
+  <si>
+    <t>DSCAM;DST;PTPN11;DSCAML1;PLEC</t>
+  </si>
+  <si>
+    <t>NRAS;ATM;TP53</t>
+  </si>
+  <si>
+    <t>PTPN11;BRAF;FGFR3</t>
+  </si>
+  <si>
+    <t>MAGI1;NRAS;TNXB;LAMA1;COL6A6;TP53;FGFR3</t>
+  </si>
+  <si>
+    <t>NRAS;BRAF;ATM;TP53</t>
+  </si>
+  <si>
+    <t>NRAS;PRKD2;BRAF</t>
+  </si>
+  <si>
+    <t>GRIA2;NRAS;BRAF</t>
+  </si>
+  <si>
+    <t>MAGI1;NRAS;PRKD2;BRAF;FGFR3</t>
+  </si>
+  <si>
+    <t>MYH1;MYH4;MYH7</t>
+  </si>
+  <si>
+    <t>SPTA1;NRAS;ATM;TP53</t>
+  </si>
+  <si>
+    <t>NRAS;PTPN11;BRAF</t>
+  </si>
+  <si>
+    <t>NRAS;BRAF;PTPN11;TP53</t>
+  </si>
+  <si>
+    <t>DST;PLEC</t>
+  </si>
+  <si>
+    <t>NRAS;TP53;FGFR3</t>
   </si>
   <si>
     <t>NRAS;TRAF3;BRAF;TP53</t>
   </si>
   <si>
-    <t>GRIA2;NRAS;BRAF</t>
-  </si>
-  <si>
-    <t>PCDHA1;FAT1;FAT2;CDH19</t>
-  </si>
-  <si>
-    <t>ABCB1;TP53</t>
-  </si>
-  <si>
-    <t>HIST1H1E;TP53;FOXP2</t>
+    <t>NRAS;LAMA1;COL11A2;BRAF</t>
+  </si>
+  <si>
+    <t>NRAS;FGFR3</t>
+  </si>
+  <si>
+    <t>TNXB;LAMA1;COL6A6</t>
+  </si>
+  <si>
+    <t>GRIA2;NRAS;SI;PRKD2;BRAF;PTPN11;TP53</t>
+  </si>
+  <si>
+    <t>DSCAM;DSCAML1</t>
+  </si>
+  <si>
+    <t>MAGI1;EGR1;DLG5;HNRNPA2B1;PTPN11;ATM;LRP2;PTPRF</t>
+  </si>
+  <si>
+    <t>TRAF3;LAMA1;TP53</t>
+  </si>
+  <si>
+    <t>ATM;TP53</t>
+  </si>
+  <si>
+    <t>NRAS;TNXB;LAMA1;COL6A6;TP53;FGFR3</t>
+  </si>
+  <si>
+    <t>DNMT3A;ATM</t>
+  </si>
+  <si>
+    <t>GRIA2;EGR1;PTPN11;PTPRF</t>
+  </si>
+  <si>
+    <t>NRAS;PTPN11;TP53</t>
+  </si>
+  <si>
+    <t>MYH1;NRAS;MYH4;MYH7</t>
   </si>
   <si>
     <t>EGR1;BRAF</t>
   </si>
   <si>
+    <t>TNXB;LAMA1;COL6A6;BRAF</t>
+  </si>
+  <si>
+    <t>MAGI1;DLG5;HNRNPA2B1;PTPN11;ATM;LRP2;PTPRF</t>
+  </si>
+  <si>
+    <t>AKAP13;EGR1;BRAF</t>
+  </si>
+  <si>
+    <t>EGR1;PTPN11;TP53</t>
+  </si>
+  <si>
+    <t>HIST1H1E;ATM;TP53</t>
+  </si>
+  <si>
+    <t>TRAF3;PTPN11</t>
+  </si>
+  <si>
+    <t>SPTA1;NRAS;LAMA1;COL6A6;BRAF;PTPN11;FGFR3;SCN1A</t>
+  </si>
+  <si>
     <t>NRAS;BRAF</t>
   </si>
   <si>
-    <t>NRAS;ABCB1;DNMT3A;TP53</t>
-  </si>
-  <si>
-    <t>GRIA2;TP53</t>
-  </si>
-  <si>
-    <t>ABCB1;SI;HIST1H1E;BRAF;TP53;TTN</t>
-  </si>
-  <si>
-    <t>HIST1H2AM;NRAS;BRAF</t>
-  </si>
-  <si>
-    <t>NRAS;TRAF3;TP53</t>
-  </si>
-  <si>
-    <t>NRAS;TP53</t>
-  </si>
-  <si>
-    <t>MYH4;MYH7</t>
-  </si>
-  <si>
-    <t>BRAF;TP53</t>
-  </si>
-  <si>
-    <t>EGR1;NRAS;TP53</t>
-  </si>
-  <si>
-    <t>NRAS;COL11A2;BRAF</t>
-  </si>
-  <si>
-    <t>TTN;MYH7</t>
-  </si>
-  <si>
-    <t>SF3B1;TP53</t>
-  </si>
-  <si>
-    <t>NRAS;MYH4;MYH7</t>
-  </si>
-  <si>
-    <t>GRIA2;ABCB1;SI;BRAF;TP53;TTN</t>
-  </si>
-  <si>
-    <t>TRAF3;TP53</t>
-  </si>
-  <si>
-    <t>GRIA2;NRAS;ABCB1;BRAF;TP53;TTN</t>
-  </si>
-  <si>
-    <t>EGR1;NRAS</t>
-  </si>
-  <si>
-    <t>GRIA2;NRAS;SI;BRAF;TP53</t>
-  </si>
-  <si>
-    <t>DLG5;BRAF;SF3B1;TP53</t>
-  </si>
-  <si>
-    <t>ABCB1;SI;BRAF</t>
-  </si>
-  <si>
-    <t>GRIA2;BRAF;TP53</t>
+    <t>HIST1H1E;TP53</t>
+  </si>
+  <si>
+    <t>DYNC2H1;SPTA1;MUC2;MUC16;MUC5B;ADAMTS9;TP53;MUC4</t>
+  </si>
+  <si>
+    <t>PTPN11;BRAF</t>
+  </si>
+  <si>
+    <t>NRAS;PTPN11</t>
+  </si>
+  <si>
+    <t>EGR1;NRAS;ATM;TP53</t>
+  </si>
+  <si>
+    <t>EGR1;PTPN11;SAMHD1</t>
+  </si>
+  <si>
+    <t>NRAS;MUC2;MUC16;TRAF3;PTPN11;MUC5B;ADAMTS9;MUC4;FGFR3</t>
+  </si>
+  <si>
+    <t>SPTA1;NRAS;BRAF;PTPN11;FGFR3</t>
+  </si>
+  <si>
+    <t>GRIA2;SVIL;BRAF;TP53</t>
+  </si>
+  <si>
+    <t>EGR1;ATM</t>
+  </si>
+  <si>
+    <t>LAMA1;PTPN11</t>
   </si>
 </sst>
 </file>
@@ -820,31 +1279,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="E2" t="n">
-        <v>2.6851610415516126E-6</v>
+        <v>4.0944756483973693E-7</v>
       </c>
       <c r="F2" t="n">
-        <v>3.007380366537806E-4</v>
+        <v>1.9325925060435583E-4</v>
       </c>
       <c r="G2" t="n">
-        <v>11.191047162270184</v>
+        <v>20.97902097902098</v>
       </c>
       <c r="H2" t="n">
-        <v>143.55617741805577</v>
+        <v>308.56902773373537</v>
       </c>
       <c r="I2" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="J2" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -852,31 +1311,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0616482448590264E-5</v>
+        <v>3.7266729195911997E-6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.006349876594165802</v>
+        <v>4.173873669942144E-4</v>
       </c>
       <c r="G3" t="n">
-        <v>14.914243102162567</v>
+        <v>7.357750163505559</v>
       </c>
       <c r="H3" t="n">
-        <v>160.91602808694395</v>
+        <v>91.97183805524935</v>
       </c>
       <c r="I3" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="J3" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
@@ -884,31 +1343,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>242</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0687178207943942E-4</v>
+        <v>1.0213080336239917E-6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.010972169626822447</v>
+        <v>7.813006457223537E-4</v>
       </c>
       <c r="G4" t="n">
-        <v>32.520325203252035</v>
+        <v>50.5050505050505</v>
       </c>
       <c r="H4" t="n">
-        <v>297.3619752962234</v>
+        <v>696.6882003190269</v>
       </c>
       <c r="I4" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="J4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -916,31 +1375,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="E5" t="n">
-        <v>7.838949822515351E-5</v>
+        <v>1.606245377057105E-6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.012071982726673642</v>
+        <v>8.191851422991235E-4</v>
       </c>
       <c r="G5" t="n">
-        <v>36.03603603603604</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="H5" t="n">
-        <v>340.67821948792624</v>
+        <v>606.4368712001713</v>
       </c>
       <c r="I5" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="J5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
@@ -948,28 +1407,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="E6" t="n">
-        <v>4.883287049456911E-4</v>
+        <v>1.0213080336239917E-6</v>
       </c>
       <c r="F6" t="n">
-        <v>0.016711693458141427</v>
+        <v>0.0015626012914447074</v>
       </c>
       <c r="G6" t="n">
-        <v>10.906612133606</v>
+        <v>50.5050505050505</v>
       </c>
       <c r="H6" t="n">
-        <v>83.15770201121249</v>
+        <v>696.6882003190269</v>
       </c>
       <c r="I6" t="s">
-        <v>213</v>
+        <v>331</v>
       </c>
       <c r="J6" t="n">
         <v>4.0</v>
@@ -980,31 +1439,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>244</v>
       </c>
       <c r="E7" t="n">
-        <v>6.67102109019667E-4</v>
+        <v>4.857462483735867E-6</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01712228746483812</v>
+        <v>0.001857979400028969</v>
       </c>
       <c r="G7" t="n">
-        <v>17.54385964912281</v>
+        <v>34.96503496503497</v>
       </c>
       <c r="H7" t="n">
-        <v>128.29065678560104</v>
+        <v>427.7970062620098</v>
       </c>
       <c r="I7" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="J7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="8">
@@ -1012,31 +1471,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>240</v>
       </c>
       <c r="E8" t="n">
-        <v>5.695079756925465E-4</v>
+        <v>4.0944756483973693E-7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.017540845651330433</v>
+        <v>0.0020894109233771775</v>
       </c>
       <c r="G8" t="n">
-        <v>18.51851851851852</v>
+        <v>20.97902097902098</v>
       </c>
       <c r="H8" t="n">
-        <v>138.34699574902203</v>
+        <v>308.56902773373537</v>
       </c>
       <c r="I8" t="s">
-        <v>212</v>
+        <v>332</v>
       </c>
       <c r="J8" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -1044,31 +1503,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="E9" t="n">
-        <v>4.6105263684634296E-4</v>
+        <v>7.808489270206901E-6</v>
       </c>
       <c r="F9" t="n">
-        <v>0.017750526518584202</v>
+        <v>0.002389397716683312</v>
       </c>
       <c r="G9" t="n">
-        <v>19.900497512437813</v>
+        <v>18.328445747800586</v>
       </c>
       <c r="H9" t="n">
-        <v>152.87558889105594</v>
+        <v>215.54800308168106</v>
       </c>
       <c r="I9" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="J9" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -1076,31 +1535,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>246</v>
       </c>
       <c r="E10" t="n">
-        <v>6.417750226758527E-4</v>
+        <v>2.8331279731939242E-5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.017969700634923872</v>
+        <v>0.006686182016737661</v>
       </c>
       <c r="G10" t="n">
-        <v>17.77777777777778</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="H10" t="n">
-        <v>130.68929329171593</v>
+        <v>237.98963801859264</v>
       </c>
       <c r="I10" t="s">
-        <v>212</v>
+        <v>334</v>
       </c>
       <c r="J10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
@@ -1108,31 +1567,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="E11" t="n">
-        <v>4.411002585772728E-4</v>
+        <v>3.5150109815095874E-5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.019408411377400004</v>
+        <v>0.008963278002849448</v>
       </c>
       <c r="G11" t="n">
-        <v>20.202020202020204</v>
+        <v>6.424670735624799</v>
       </c>
       <c r="H11" t="n">
-        <v>156.08562352815068</v>
+        <v>65.89067019291792</v>
       </c>
       <c r="I11" t="s">
-        <v>212</v>
+        <v>335</v>
       </c>
       <c r="J11" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="12">
@@ -1140,31 +1599,31 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="E12" t="n">
-        <v>3.565712757597216E-4</v>
+        <v>4.32169876602898E-5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.019967991442544412</v>
+        <v>0.009445998731463344</v>
       </c>
       <c r="G12" t="n">
-        <v>11.851851851851853</v>
+        <v>12.913223140495866</v>
       </c>
       <c r="H12" t="n">
-        <v>94.09157222031212</v>
+        <v>129.76855510243948</v>
       </c>
       <c r="I12" t="s">
-        <v>215</v>
+        <v>333</v>
       </c>
       <c r="J12" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -1172,31 +1631,31 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>140</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="E13" t="n">
-        <v>3.329829563521316E-4</v>
+        <v>3.128902974708308E-5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.020511750111291308</v>
+        <v>0.009637021162101588</v>
       </c>
       <c r="G13" t="n">
-        <v>22.222222222222225</v>
+        <v>22.172949002217294</v>
       </c>
       <c r="H13" t="n">
-        <v>177.94265003154248</v>
+        <v>229.9832152808612</v>
       </c>
       <c r="I13" t="s">
-        <v>214</v>
+        <v>334</v>
       </c>
       <c r="J13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="14">
@@ -1204,31 +1663,31 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>250</v>
       </c>
       <c r="E14" t="n">
-        <v>4.037646630358679E-4</v>
+        <v>1.031205394847894E-4</v>
       </c>
       <c r="F14" t="n">
-        <v>0.020726586035841217</v>
+        <v>0.015880563080657568</v>
       </c>
       <c r="G14" t="n">
-        <v>11.469534050179213</v>
+        <v>5.509641873278237</v>
       </c>
       <c r="H14" t="n">
-        <v>89.63071962116311</v>
+        <v>50.57637447782764</v>
       </c>
       <c r="I14" t="s">
-        <v>213</v>
+        <v>336</v>
       </c>
       <c r="J14" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="15">
@@ -1236,31 +1695,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>162</v>
+        <v>251</v>
       </c>
       <c r="E15" t="n">
-        <v>9.560324023137253E-4</v>
+        <v>9.354594936602666E-5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.022650613839432877</v>
+        <v>0.0178906628162526</v>
       </c>
       <c r="G15" t="n">
-        <v>15.503875968992249</v>
+        <v>16.835016835016834</v>
       </c>
       <c r="H15" t="n">
-        <v>107.79408917602551</v>
+        <v>156.17942433191038</v>
       </c>
       <c r="I15" t="s">
-        <v>212</v>
+        <v>337</v>
       </c>
       <c r="J15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -1268,31 +1727,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="E16" t="n">
-        <v>3.0119346093740446E-4</v>
+        <v>1.2516187887923078E-4</v>
       </c>
       <c r="F16" t="n">
-        <v>0.023191896492180144</v>
+        <v>0.02127751940946923</v>
       </c>
       <c r="G16" t="n">
-        <v>22.98850574712644</v>
+        <v>10.330578512396693</v>
       </c>
       <c r="H16" t="n">
-        <v>186.38523614504325</v>
+        <v>92.82957259770195</v>
       </c>
       <c r="I16" t="s">
-        <v>212</v>
+        <v>333</v>
       </c>
       <c r="J16" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
@@ -1300,28 +1759,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="E17" t="n">
-        <v>9.920772536011586E-5</v>
+        <v>1.0336776935523455E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.023413023184987343</v>
+        <v>0.02449816133719059</v>
       </c>
       <c r="G17" t="n">
-        <v>33.333333333333336</v>
+        <v>32.467532467532465</v>
       </c>
       <c r="H17" t="n">
-        <v>307.2764890030534</v>
+        <v>297.96160236507785</v>
       </c>
       <c r="I17" t="s">
-        <v>212</v>
+        <v>338</v>
       </c>
       <c r="J17" t="n">
         <v>3.0</v>
@@ -1332,31 +1791,31 @@
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0013538080248683298</v>
+        <v>1.7096702040759042E-4</v>
       </c>
       <c r="F18" t="n">
-        <v>0.029783776547103256</v>
+        <v>0.026898811210794224</v>
       </c>
       <c r="G18" t="n">
-        <v>13.745704467353953</v>
+        <v>14.430014430014428</v>
       </c>
       <c r="H18" t="n">
-        <v>90.78809482124666</v>
+        <v>125.1665206807446</v>
       </c>
       <c r="I18" t="s">
-        <v>212</v>
+        <v>339</v>
       </c>
       <c r="J18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -1364,31 +1823,31 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="D19" t="s">
-        <v>166</v>
+        <v>255</v>
       </c>
       <c r="E19" t="n">
-        <v>7.38257507055839E-5</v>
+        <v>3.5257591407511214E-4</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0348457543330356</v>
+        <v>0.027148345383783634</v>
       </c>
       <c r="G19" t="n">
-        <v>148.14814814814815</v>
+        <v>11.961722488038276</v>
       </c>
       <c r="H19" t="n">
-        <v>1409.452290617525</v>
+        <v>95.09861961507242</v>
       </c>
       <c r="I19" t="s">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="J19" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
@@ -1396,28 +1855,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
       <c r="E20" t="n">
-        <v>4.411002585772728E-4</v>
+        <v>5.739474038961532E-4</v>
       </c>
       <c r="F20" t="n">
-        <v>0.041639864409694555</v>
+        <v>0.02946263340000253</v>
       </c>
       <c r="G20" t="n">
-        <v>20.202020202020204</v>
+        <v>18.42751842751843</v>
       </c>
       <c r="H20" t="n">
-        <v>156.08562352815068</v>
+        <v>137.52406873500016</v>
       </c>
       <c r="I20" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="J20" t="n">
         <v>3.0</v>
@@ -1428,31 +1887,31 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="E21" t="n">
-        <v>8.325075371579416E-4</v>
+        <v>5.272570135135263E-4</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04911794469231855</v>
+        <v>0.02952639275675747</v>
       </c>
       <c r="G21" t="n">
-        <v>16.260162601626018</v>
+        <v>7.575757575757575</v>
       </c>
       <c r="H21" t="n">
-        <v>115.30192329280466</v>
+        <v>57.18047300476762</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>342</v>
       </c>
       <c r="J21" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
@@ -1460,31 +1919,31 @@
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c r="E22" t="n">
-        <v>4.2171165219509206E-4</v>
+        <v>2.0479464164563347E-4</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04976197495902086</v>
+        <v>0.03133358017178192</v>
       </c>
       <c r="G22" t="n">
-        <v>20.512820512820515</v>
+        <v>13.774104683195592</v>
       </c>
       <c r="H22" t="n">
-        <v>159.40900033053455</v>
+        <v>116.99039709340057</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>331</v>
       </c>
       <c r="J22" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
@@ -1492,31 +1951,31 @@
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0024291347077634315</v>
+        <v>5.114348174601555E-4</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04987823266607579</v>
+        <v>0.03150438475554558</v>
       </c>
       <c r="G23" t="n">
-        <v>11.204481792717088</v>
+        <v>7.62660158633313</v>
       </c>
       <c r="H23" t="n">
-        <v>67.45344730962447</v>
+        <v>57.79660169911912</v>
       </c>
       <c r="I23" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="J23" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
@@ -1524,28 +1983,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>260</v>
       </c>
       <c r="E24" t="n">
-        <v>8.26101582708724E-4</v>
+        <v>2.8382836457155217E-4</v>
       </c>
       <c r="F24" t="n">
-        <v>0.055702849576931106</v>
+        <v>0.03349174701944316</v>
       </c>
       <c r="G24" t="n">
-        <v>46.78362573099415</v>
+        <v>75.75757575757575</v>
       </c>
       <c r="H24" t="n">
-        <v>332.1072659891153</v>
+        <v>618.7227918633612</v>
       </c>
       <c r="I24" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
       <c r="J24" t="n">
         <v>2.0</v>
@@ -1556,31 +2015,31 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="E25" t="n">
-        <v>7.40201623342803E-4</v>
+        <v>3.512356870679396E-4</v>
       </c>
       <c r="F25" t="n">
-        <v>0.058229194369633835</v>
+        <v>0.0360601972056418</v>
       </c>
       <c r="G25" t="n">
-        <v>49.382716049382715</v>
+        <v>5.320766190331407</v>
       </c>
       <c r="H25" t="n">
-        <v>355.97965160004276</v>
+        <v>42.321656739854916</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
       <c r="J25" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="26">
@@ -1588,31 +2047,31 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0011260215113329747</v>
+        <v>2.831268297683615E-4</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05905357259435156</v>
+        <v>0.036098670795466095</v>
       </c>
       <c r="G26" t="n">
-        <v>14.652014652014653</v>
+        <v>8.674531575294933</v>
       </c>
       <c r="H26" t="n">
-        <v>99.47347465558637</v>
+        <v>70.86758847145948</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="J26" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
@@ -1620,28 +2079,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="E27" t="n">
-        <v>3.8459822537439075E-4</v>
+        <v>0.0010219153387187475</v>
       </c>
       <c r="F27" t="n">
-        <v>0.06051012079223748</v>
+        <v>0.03815150597883324</v>
       </c>
       <c r="G27" t="n">
-        <v>21.164021164021165</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="H27" t="n">
-        <v>166.419287598548</v>
+        <v>104.33449438574252</v>
       </c>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>347</v>
       </c>
       <c r="J27" t="n">
         <v>3.0</v>
@@ -1652,31 +2111,31 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
-        <v>174</v>
+        <v>264</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0045052984693724546</v>
+        <v>2.7685572008301264E-4</v>
       </c>
       <c r="F28" t="n">
-        <v>0.081625407562748</v>
+        <v>0.03850811379336449</v>
       </c>
       <c r="G28" t="n">
-        <v>5.945745076179859</v>
+        <v>23.510971786833853</v>
       </c>
       <c r="H28" t="n">
-        <v>32.12189453558439</v>
+        <v>192.60221129156253</v>
       </c>
       <c r="I28" t="s">
-        <v>220</v>
+        <v>348</v>
       </c>
       <c r="J28" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="29">
@@ -1684,31 +2143,31 @@
         <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>175</v>
+        <v>265</v>
       </c>
       <c r="E29" t="n">
-        <v>0.004404298958469595</v>
+        <v>9.537584621700171E-4</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08478275495053972</v>
+        <v>0.041965372335480755</v>
       </c>
       <c r="G29" t="n">
-        <v>9.070294784580499</v>
+        <v>4.494093477144324</v>
       </c>
       <c r="H29" t="n">
-        <v>49.20792906150683</v>
+        <v>31.25687000524199</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>349</v>
       </c>
       <c r="J29" t="n">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="30">
@@ -1716,31 +2175,31 @@
         <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>266</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0019335473987568362</v>
+        <v>4.7112487404686533E-4</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09126343722132267</v>
+        <v>0.044474188110024085</v>
       </c>
       <c r="G30" t="n">
-        <v>30.651340996168585</v>
+        <v>11.086474501108647</v>
       </c>
       <c r="H30" t="n">
-        <v>191.52180636727516</v>
+        <v>84.92668928738891</v>
       </c>
       <c r="I30" t="s">
-        <v>219</v>
+        <v>350</v>
       </c>
       <c r="J30" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="31">
@@ -1748,31 +2207,31 @@
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="E31" t="n">
-        <v>0.005884496930555281</v>
+        <v>0.0017361096774850563</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1006902808117237</v>
+        <v>0.048611070969581574</v>
       </c>
       <c r="G31" t="n">
-        <v>17.429193899782135</v>
+        <v>12.626262626262625</v>
       </c>
       <c r="H31" t="n">
-        <v>89.50647538582842</v>
+        <v>80.2538950311217</v>
       </c>
       <c r="I31" t="s">
-        <v>221</v>
+        <v>351</v>
       </c>
       <c r="J31" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="32">
@@ -1780,31 +2239,31 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="E32" t="n">
-        <v>2.3611071451735272E-4</v>
+        <v>5.399590120906342E-4</v>
       </c>
       <c r="F32" t="n">
-        <v>0.10105538581342696</v>
+        <v>0.0635490221922054</v>
       </c>
       <c r="G32" t="n">
-        <v>6.785411365564038</v>
+        <v>10.6951871657754</v>
       </c>
       <c r="H32" t="n">
-        <v>56.66639344281323</v>
+        <v>80.47077352751481</v>
       </c>
       <c r="I32" t="s">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="J32" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="33">
@@ -1812,28 +2271,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="D33" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006378951645822235</v>
+        <v>0.002350148364202249</v>
       </c>
       <c r="F33" t="n">
-        <v>0.10340616352174992</v>
+        <v>0.06580415419766296</v>
       </c>
       <c r="G33" t="n">
-        <v>7.936507936507937</v>
+        <v>11.363636363636363</v>
       </c>
       <c r="H33" t="n">
-        <v>40.117075507649986</v>
+        <v>68.78723658086174</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="J33" t="n">
         <v>3.0</v>
@@ -1844,31 +2303,31 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002652713619192561</v>
+        <v>0.0021655891554592265</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11382552984171718</v>
+        <v>0.06670014598814418</v>
       </c>
       <c r="G34" t="n">
-        <v>26.143790849673206</v>
+        <v>5.516328331862312</v>
       </c>
       <c r="H34" t="n">
-        <v>155.08946812233467</v>
+        <v>33.843020892071294</v>
       </c>
       <c r="I34" t="s">
-        <v>219</v>
+        <v>353</v>
       </c>
       <c r="J34" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
@@ -1876,28 +2335,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="D35" t="s">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="E35" t="n">
-        <v>0.00770980692877201</v>
+        <v>0.0036425599768837285</v>
       </c>
       <c r="F35" t="n">
-        <v>0.11873102670308895</v>
+        <v>0.0679944529018296</v>
       </c>
       <c r="G35" t="n">
-        <v>7.407407407407407</v>
+        <v>9.74025974025974</v>
       </c>
       <c r="H35" t="n">
-        <v>36.038978765809325</v>
+        <v>54.69222617701542</v>
       </c>
       <c r="I35" t="s">
-        <v>223</v>
+        <v>354</v>
       </c>
       <c r="J35" t="n">
         <v>3.0</v>
@@ -1908,31 +2367,31 @@
         <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="E36" t="n">
-        <v>0.010553764582444435</v>
+        <v>0.003672312575684712</v>
       </c>
       <c r="F36" t="n">
-        <v>0.12039109227381059</v>
+        <v>0.07069201708193071</v>
       </c>
       <c r="G36" t="n">
-        <v>12.882447665056361</v>
+        <v>6.357279084551811</v>
       </c>
       <c r="H36" t="n">
-        <v>58.63153172625358</v>
+        <v>35.64484224888493</v>
       </c>
       <c r="I36" t="s">
-        <v>219</v>
+        <v>355</v>
       </c>
       <c r="J36" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="37">
@@ -1940,28 +2399,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>273</v>
       </c>
       <c r="E37" t="n">
-        <v>0.010408525859816853</v>
+        <v>0.003218059692435927</v>
       </c>
       <c r="F37" t="n">
-        <v>0.12330099864706118</v>
+        <v>0.07079731323359038</v>
       </c>
       <c r="G37" t="n">
-        <v>6.633499170812604</v>
+        <v>10.176390773405698</v>
       </c>
       <c r="H37" t="n">
-        <v>30.282786165634423</v>
+        <v>58.402069345715226</v>
       </c>
       <c r="I37" t="s">
-        <v>212</v>
+        <v>352</v>
       </c>
       <c r="J37" t="n">
         <v>3.0</v>
@@ -1972,28 +2431,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>274</v>
       </c>
       <c r="E38" t="n">
-        <v>0.008432269226499936</v>
+        <v>0.003943664355030209</v>
       </c>
       <c r="F38" t="n">
-        <v>0.12367328198866573</v>
+        <v>0.07144991890290024</v>
       </c>
       <c r="G38" t="n">
-        <v>7.168458781362007</v>
+        <v>9.469696969696969</v>
       </c>
       <c r="H38" t="n">
-        <v>34.23433231938257</v>
+        <v>52.42088019453744</v>
       </c>
       <c r="I38" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="J38" t="n">
         <v>3.0</v>
@@ -2004,31 +2463,31 @@
         <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="E39" t="n">
-        <v>0.009690762690968984</v>
+        <v>0.0034974672993855122</v>
       </c>
       <c r="F39" t="n">
-        <v>0.12436478786743528</v>
+        <v>0.07181466188071585</v>
       </c>
       <c r="G39" t="n">
-        <v>13.468013468013469</v>
+        <v>9.881422924901186</v>
       </c>
       <c r="H39" t="n">
-        <v>62.44555080267385</v>
+        <v>55.88652372706939</v>
       </c>
       <c r="I39" t="s">
-        <v>219</v>
+        <v>356</v>
       </c>
       <c r="J39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="40">
@@ -2036,31 +2495,31 @@
         <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="E40" t="n">
-        <v>0.009410468975089455</v>
+        <v>0.0018908213825992745</v>
       </c>
       <c r="F40" t="n">
-        <v>0.12601845410119794</v>
+        <v>0.07279662323007206</v>
       </c>
       <c r="G40" t="n">
-        <v>13.675213675213676</v>
+        <v>7.639419404125285</v>
       </c>
       <c r="H40" t="n">
-        <v>63.80762377680477</v>
+        <v>47.90484301261514</v>
       </c>
       <c r="I40" t="s">
-        <v>225</v>
+        <v>357</v>
       </c>
       <c r="J40" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="41">
@@ -2068,28 +2527,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>277</v>
       </c>
       <c r="E41" t="n">
-        <v>0.010408525859816853</v>
+        <v>0.0021325568371339688</v>
       </c>
       <c r="F41" t="n">
-        <v>0.12823303859294363</v>
+        <v>0.07298083398191804</v>
       </c>
       <c r="G41" t="n">
-        <v>6.633499170812604</v>
+        <v>11.755485893416926</v>
       </c>
       <c r="H41" t="n">
-        <v>30.282786165634423</v>
+        <v>72.30133573043669</v>
       </c>
       <c r="I41" t="s">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="J41" t="n">
         <v>3.0</v>
@@ -2100,31 +2559,31 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>122</v>
+        <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>278</v>
       </c>
       <c r="E42" t="n">
-        <v>0.011755406983254994</v>
+        <v>0.003083686517640435</v>
       </c>
       <c r="F42" t="n">
-        <v>0.13166055821245592</v>
+        <v>0.073059649802558</v>
       </c>
       <c r="G42" t="n">
-        <v>12.176560121765602</v>
+        <v>10.330578512396693</v>
       </c>
       <c r="H42" t="n">
-        <v>54.105838361637716</v>
+        <v>59.727577235785866</v>
       </c>
       <c r="I42" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="J42" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="43">
@@ -2132,28 +2591,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
       <c r="E43" t="n">
-        <v>0.009410468975089455</v>
+        <v>6.753596640136004E-4</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1317465656512524</v>
+        <v>0.07380716328148633</v>
       </c>
       <c r="G43" t="n">
-        <v>13.675213675213676</v>
+        <v>50.5050505050505</v>
       </c>
       <c r="H43" t="n">
-        <v>63.80762377680477</v>
+        <v>368.70026128396506</v>
       </c>
       <c r="I43" t="s">
-        <v>225</v>
+        <v>358</v>
       </c>
       <c r="J43" t="n">
         <v>2.0</v>
@@ -2164,31 +2623,31 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
-        <v>188</v>
+        <v>280</v>
       </c>
       <c r="E44" t="n">
-        <v>0.010848748012311778</v>
+        <v>0.003355976815386773</v>
       </c>
       <c r="F44" t="n">
-        <v>0.13500664193099102</v>
+        <v>0.07517388066466371</v>
       </c>
       <c r="G44" t="n">
-        <v>12.6984126984127</v>
+        <v>10.026737967914439</v>
       </c>
       <c r="H44" t="n">
-        <v>57.44388058697163</v>
+        <v>57.12245052280591</v>
       </c>
       <c r="I44" t="s">
-        <v>226</v>
+        <v>354</v>
       </c>
       <c r="J44" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="45">
@@ -2196,31 +2655,31 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="E45" t="n">
-        <v>0.012377766878122391</v>
+        <v>0.004423025249012721</v>
       </c>
       <c r="F45" t="n">
-        <v>0.13615543565934632</v>
+        <v>0.07568287648310655</v>
       </c>
       <c r="G45" t="n">
-        <v>11.851851851851853</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="H45" t="n">
-        <v>52.05159596335565</v>
+        <v>49.281194286732</v>
       </c>
       <c r="I45" t="s">
-        <v>227</v>
+        <v>341</v>
       </c>
       <c r="J45" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="46">
@@ -2228,28 +2687,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C46" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
+        <v>282</v>
       </c>
       <c r="E46" t="n">
-        <v>0.013107735172429427</v>
+        <v>0.0029528272890924027</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1392131873485608</v>
+        <v>0.07578923375337167</v>
       </c>
       <c r="G46" t="n">
-        <v>6.088280060882801</v>
+        <v>10.48951048951049</v>
       </c>
       <c r="H46" t="n">
-        <v>26.389971091973973</v>
+        <v>61.10131641108294</v>
       </c>
       <c r="I46" t="s">
-        <v>228</v>
+        <v>359</v>
       </c>
       <c r="J46" t="n">
         <v>3.0</v>
@@ -2260,31 +2719,31 @@
         <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
-        <v>191</v>
+        <v>283</v>
       </c>
       <c r="E47" t="n">
-        <v>0.005196575978092495</v>
+        <v>0.004887508556420301</v>
       </c>
       <c r="F47" t="n">
-        <v>0.14550412738658985</v>
+        <v>0.07922908607249751</v>
       </c>
       <c r="G47" t="n">
-        <v>8.547008547008549</v>
+        <v>5.865102639296187</v>
       </c>
       <c r="H47" t="n">
-        <v>44.95517381222209</v>
+        <v>31.208636967729934</v>
       </c>
       <c r="I47" t="s">
-        <v>229</v>
+        <v>360</v>
       </c>
       <c r="J47" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="48">
@@ -2292,31 +2751,31 @@
         <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="E48" t="n">
-        <v>0.006576328212641212</v>
+        <v>0.004999547093689055</v>
       </c>
       <c r="F48" t="n">
-        <v>0.14730975196316315</v>
+        <v>0.07999275349902488</v>
       </c>
       <c r="G48" t="n">
-        <v>16.46090534979424</v>
+        <v>5.827505827505827</v>
       </c>
       <c r="H48" t="n">
-        <v>82.70417632579927</v>
+        <v>30.876503216275964</v>
       </c>
       <c r="I48" t="s">
-        <v>219</v>
+        <v>361</v>
       </c>
       <c r="J48" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
@@ -2324,31 +2783,31 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C49" t="s">
-        <v>129</v>
+        <v>176</v>
       </c>
       <c r="D49" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="E49" t="n">
-        <v>0.010553764582444435</v>
+        <v>0.0058324420464588534</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1477527041542221</v>
+        <v>0.08554248334806318</v>
       </c>
       <c r="G49" t="n">
-        <v>12.882447665056361</v>
+        <v>5.577244841048522</v>
       </c>
       <c r="H49" t="n">
-        <v>58.63153172625358</v>
+        <v>28.69112933870773</v>
       </c>
       <c r="I49" t="s">
-        <v>219</v>
+        <v>360</v>
       </c>
       <c r="J49" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="50">
@@ -2356,28 +2815,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>177</v>
       </c>
       <c r="D50" t="s">
-        <v>193</v>
+        <v>286</v>
       </c>
       <c r="E50" t="n">
-        <v>0.016050617607820547</v>
+        <v>8.417860041969778E-4</v>
       </c>
       <c r="F50" t="n">
-        <v>0.14980576433965845</v>
+        <v>0.08586217242809173</v>
       </c>
       <c r="G50" t="n">
-        <v>10.335917312661499</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="H50" t="n">
-        <v>42.708092505513356</v>
+        <v>321.81748762768393</v>
       </c>
       <c r="I50" t="s">
-        <v>219</v>
+        <v>362</v>
       </c>
       <c r="J50" t="n">
         <v>2.0</v>
@@ -2388,31 +2847,31 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="D51" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="E51" t="n">
-        <v>0.015699579788333192</v>
+        <v>0.005674365988398885</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1559829217679556</v>
+        <v>0.08738523622134284</v>
       </c>
       <c r="G51" t="n">
-        <v>10.457516339869281</v>
+        <v>8.314855875831485</v>
       </c>
       <c r="H51" t="n">
-        <v>43.44179170782102</v>
+        <v>43.00274203405002</v>
       </c>
       <c r="I51" t="s">
-        <v>230</v>
+        <v>363</v>
       </c>
       <c r="J51" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="52">
@@ -2420,31 +2879,31 @@
         <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>288</v>
       </c>
       <c r="E52" t="n">
-        <v>7.40201623342803E-4</v>
+        <v>0.006475292398831211</v>
       </c>
       <c r="F52" t="n">
-        <v>0.15840314739535982</v>
+        <v>0.09065409358363695</v>
       </c>
       <c r="G52" t="n">
-        <v>49.382716049382715</v>
+        <v>7.928118393234672</v>
       </c>
       <c r="H52" t="n">
-        <v>355.97965160004276</v>
+        <v>39.95582595900223</v>
       </c>
       <c r="I52" t="s">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="J52" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="53">
@@ -2452,31 +2911,31 @@
         <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="E53" t="n">
-        <v>0.015699579788333192</v>
+        <v>7.279540755384427E-4</v>
       </c>
       <c r="F53" t="n">
-        <v>0.16118235249355412</v>
+        <v>0.0934207730274335</v>
       </c>
       <c r="G53" t="n">
-        <v>10.457516339869281</v>
+        <v>4.706831629908553</v>
       </c>
       <c r="H53" t="n">
-        <v>43.44179170782102</v>
+        <v>34.008141583958434</v>
       </c>
       <c r="I53" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="J53" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="54">
@@ -2484,31 +2943,31 @@
         <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>195</v>
+        <v>290</v>
       </c>
       <c r="E54" t="n">
-        <v>0.008681660148190683</v>
+        <v>0.0010259088280346563</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1620576560995594</v>
+        <v>0.09810253168081401</v>
       </c>
       <c r="G54" t="n">
-        <v>7.092198581560283</v>
+        <v>41.32231404958677</v>
       </c>
       <c r="H54" t="n">
-        <v>33.66342203748724</v>
+        <v>284.38745445234065</v>
       </c>
       <c r="I54" t="s">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="J54" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="55">
@@ -2516,31 +2975,31 @@
         <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="E55" t="n">
-        <v>0.010262427755379562</v>
+        <v>4.0259889007328916E-5</v>
       </c>
       <c r="F55" t="n">
-        <v>0.16419884408607302</v>
+        <v>0.10272310680219973</v>
       </c>
       <c r="G55" t="n">
-        <v>13.071895424836603</v>
+        <v>9.535918626827717</v>
       </c>
       <c r="H55" t="n">
-        <v>59.85968423397462</v>
+        <v>96.50497356630683</v>
       </c>
       <c r="I55" t="s">
-        <v>226</v>
+        <v>332</v>
       </c>
       <c r="J55" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56">
@@ -2548,31 +3007,31 @@
         <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="E56" t="n">
-        <v>4.315507957318953E-4</v>
+        <v>3.678584135608775E-4</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1661470563567797</v>
+        <v>0.10557536469197183</v>
       </c>
       <c r="G56" t="n">
-        <v>6.0606060606060606</v>
+        <v>4.568296025582457</v>
       </c>
       <c r="H56" t="n">
-        <v>46.9583353661067</v>
+        <v>36.12522813881894</v>
       </c>
       <c r="I56" t="s">
-        <v>233</v>
+        <v>366</v>
       </c>
       <c r="J56" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="57">
@@ -2580,31 +3039,31 @@
         <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="C57" t="s">
-        <v>136</v>
+        <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="E57" t="n">
-        <v>0.018601142069627458</v>
+        <v>0.008031929279025463</v>
       </c>
       <c r="F57" t="n">
-        <v>0.16850446345427225</v>
+        <v>0.10755800947564531</v>
       </c>
       <c r="G57" t="n">
-        <v>9.55794504181601</v>
+        <v>7.331378299120234</v>
       </c>
       <c r="H57" t="n">
-        <v>38.08394072693054</v>
+        <v>35.368992089250256</v>
       </c>
       <c r="I57" t="s">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="J57" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="58">
@@ -2612,28 +3071,28 @@
         <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="D58" t="s">
-        <v>199</v>
+        <v>294</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01785592806997647</v>
+        <v>0.0012275727583483554</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1718633076735235</v>
+        <v>0.110481548251352</v>
       </c>
       <c r="G58" t="n">
-        <v>9.768009768009769</v>
+        <v>37.878787878787875</v>
       </c>
       <c r="H58" t="n">
-        <v>39.32033915634171</v>
+        <v>253.89077372911592</v>
       </c>
       <c r="I58" t="s">
-        <v>230</v>
+        <v>368</v>
       </c>
       <c r="J58" t="n">
         <v>2.0</v>
@@ -2644,28 +3103,28 @@
         <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="D59" t="s">
-        <v>200</v>
+        <v>295</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0013403571685338452</v>
+        <v>0.0038907560072187868</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1720125032951768</v>
+        <v>0.11477730221295421</v>
       </c>
       <c r="G59" t="n">
-        <v>4.875076173065204</v>
+        <v>4.010695187165775</v>
       </c>
       <c r="H59" t="n">
-        <v>32.24774726071322</v>
+        <v>22.255956392670505</v>
       </c>
       <c r="I59" t="s">
-        <v>235</v>
+        <v>369</v>
       </c>
       <c r="J59" t="n">
         <v>6.0</v>
@@ -2676,31 +3135,31 @@
         <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="C60" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
-        <v>201</v>
+        <v>296</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004608370208861297</v>
+        <v>0.00901197674517492</v>
       </c>
       <c r="F60" t="n">
-        <v>0.17204582113082176</v>
+        <v>0.11565370156307814</v>
       </c>
       <c r="G60" t="n">
-        <v>19.75308641975309</v>
+        <v>7.029053420805998</v>
       </c>
       <c r="H60" t="n">
-        <v>106.26925468347612</v>
+        <v>33.10122425148325</v>
       </c>
       <c r="I60" t="s">
-        <v>225</v>
+        <v>341</v>
       </c>
       <c r="J60" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="61">
@@ -2708,28 +3167,28 @@
         <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
       <c r="E61" t="n">
-        <v>0.018601142069627458</v>
+        <v>0.003454044971934738</v>
       </c>
       <c r="F61" t="n">
-        <v>0.17361065931652292</v>
+        <v>0.11645065905379973</v>
       </c>
       <c r="G61" t="n">
-        <v>9.55794504181601</v>
+        <v>22.727272727272727</v>
       </c>
       <c r="H61" t="n">
-        <v>38.08394072693054</v>
+        <v>128.82293816124886</v>
       </c>
       <c r="I61" t="s">
-        <v>236</v>
+        <v>370</v>
       </c>
       <c r="J61" t="n">
         <v>2.0</v>
@@ -2740,31 +3199,31 @@
         <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="D62" t="s">
-        <v>202</v>
+        <v>298</v>
       </c>
       <c r="E62" t="n">
-        <v>9.391271507410187E-4</v>
+        <v>0.003764732721113224</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1807819765176461</v>
+        <v>0.11846358962436279</v>
       </c>
       <c r="G62" t="n">
-        <v>6.574621959237344</v>
+        <v>6.313131313131312</v>
       </c>
       <c r="H62" t="n">
-        <v>45.828794721390004</v>
+        <v>35.24039400668177</v>
       </c>
       <c r="I62" t="s">
-        <v>237</v>
+        <v>371</v>
       </c>
       <c r="J62" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="63">
@@ -2772,31 +3231,31 @@
         <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="D63" t="s">
-        <v>203</v>
+        <v>280</v>
       </c>
       <c r="E63" t="n">
-        <v>0.006103508506924286</v>
+        <v>0.003355976815386773</v>
       </c>
       <c r="F63" t="n">
-        <v>0.18659297435454247</v>
+        <v>0.12184777360481205</v>
       </c>
       <c r="G63" t="n">
-        <v>5.453306066803</v>
+        <v>10.026737967914439</v>
       </c>
       <c r="H63" t="n">
-        <v>27.8058159949685</v>
+        <v>57.12245052280591</v>
       </c>
       <c r="I63" t="s">
-        <v>238</v>
+        <v>372</v>
       </c>
       <c r="J63" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="64">
@@ -2804,28 +3263,28 @@
         <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>299</v>
       </c>
       <c r="E64" t="n">
-        <v>0.02131096041448218</v>
+        <v>0.003117527372663636</v>
       </c>
       <c r="F64" t="n">
-        <v>0.18753645164744318</v>
+        <v>0.12262274332476969</v>
       </c>
       <c r="G64" t="n">
-        <v>8.88888888888889</v>
+        <v>23.923444976076553</v>
       </c>
       <c r="H64" t="n">
-        <v>34.20918902368363</v>
+        <v>138.0553851704183</v>
       </c>
       <c r="I64" t="s">
-        <v>236</v>
+        <v>368</v>
       </c>
       <c r="J64" t="n">
         <v>2.0</v>
@@ -2836,28 +3295,28 @@
         <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="D65" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
       <c r="E65" t="n">
-        <v>0.022113696746945567</v>
+        <v>0.0049605324106260194</v>
       </c>
       <c r="F65" t="n">
-        <v>0.18919496105720096</v>
+        <v>0.13007618321197117</v>
       </c>
       <c r="G65" t="n">
-        <v>8.714596949891067</v>
+        <v>18.939393939393938</v>
       </c>
       <c r="H65" t="n">
-        <v>33.21619259369537</v>
+        <v>100.49701142336927</v>
       </c>
       <c r="I65" t="s">
-        <v>225</v>
+        <v>368</v>
       </c>
       <c r="J65" t="n">
         <v>2.0</v>
@@ -2868,31 +3327,31 @@
         <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="D66" t="s">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="E66" t="n">
-        <v>0.007249414784766157</v>
+        <v>0.0027973432696242373</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1939218454924947</v>
+        <v>0.13259407098018886</v>
       </c>
       <c r="G66" t="n">
-        <v>7.575757575757576</v>
+        <v>25.25252525252525</v>
       </c>
       <c r="H66" t="n">
-        <v>37.32450403572829</v>
+        <v>148.4617460733415</v>
       </c>
       <c r="I66" t="s">
-        <v>239</v>
+        <v>368</v>
       </c>
       <c r="J66" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="67">
@@ -2900,31 +3359,31 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="D67" t="s">
-        <v>207</v>
+        <v>302</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0025467837220511202</v>
+        <v>0.004777171481350706</v>
       </c>
       <c r="F67" t="n">
-        <v>0.19610234659793627</v>
+        <v>0.13263676112926667</v>
       </c>
       <c r="G67" t="n">
-        <v>11.019283746556475</v>
+        <v>5.903187721369539</v>
       </c>
       <c r="H67" t="n">
-        <v>65.81734436773486</v>
+        <v>31.54608410820167</v>
       </c>
       <c r="I67" t="s">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="J67" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="68">
@@ -2932,31 +3391,31 @@
         <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>303</v>
       </c>
       <c r="E68" t="n">
-        <v>0.005013613365871268</v>
+        <v>0.0016829074036537372</v>
       </c>
       <c r="F68" t="n">
-        <v>0.19720212572426987</v>
+        <v>0.13294968488864525</v>
       </c>
       <c r="G68" t="n">
-        <v>8.658008658008658</v>
+        <v>32.467532467532465</v>
       </c>
       <c r="H68" t="n">
-        <v>45.84933673709453</v>
+        <v>207.3776748023467</v>
       </c>
       <c r="I68" t="s">
-        <v>212</v>
+        <v>368</v>
       </c>
       <c r="J68" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="69">
@@ -2964,30 +3423,1438 @@
         <v>76</v>
       </c>
       <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" t="s">
+        <v>304</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.009550525285893412</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.13370735400250777</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.835589941972921</v>
+      </c>
+      <c r="H69" t="n">
+        <v>22.491098270037124</v>
+      </c>
+      <c r="I69" t="s">
+        <v>373</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="s">
+        <v>299</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.003117527372663636</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1337702654452033</v>
+      </c>
+      <c r="G70" t="n">
+        <v>23.923444976076553</v>
+      </c>
+      <c r="H70" t="n">
+        <v>138.0553851704183</v>
+      </c>
+      <c r="I70" t="s">
+        <v>374</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
         <v>78</v>
       </c>
-      <c r="C69" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="B71" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" t="s">
+        <v>305</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0045601374272080065</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1350940712810372</v>
+      </c>
+      <c r="G71" t="n">
+        <v>19.76284584980237</v>
+      </c>
+      <c r="H71" t="n">
+        <v>106.52969403882122</v>
+      </c>
+      <c r="I71" t="s">
+        <v>368</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" t="s">
+        <v>306</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.01198078564872533</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.1366697029558297</v>
+      </c>
+      <c r="G72" t="n">
+        <v>4.522840343735866</v>
+      </c>
+      <c r="H72" t="n">
+        <v>20.01108597203959</v>
+      </c>
+      <c r="I72" t="s">
+        <v>357</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" t="s">
+        <v>200</v>
+      </c>
+      <c r="D73" t="s">
+        <v>307</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.011583542726838968</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.13722042922563085</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.568296025582457</v>
+      </c>
+      <c r="H73" t="n">
+        <v>20.36623992081159</v>
+      </c>
+      <c r="I73" t="s">
+        <v>375</v>
+      </c>
+      <c r="J73" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
+        <v>183</v>
+      </c>
+      <c r="D74" t="s">
+        <v>308</v>
+      </c>
+      <c r="E74" t="n">
+        <v>7.15397332886433E-4</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.13771398658063835</v>
+      </c>
+      <c r="G74" t="n">
+        <v>4.7207984893444825</v>
+      </c>
+      <c r="H74" t="n">
+        <v>34.19119720463027</v>
+      </c>
+      <c r="I74" t="s">
+        <v>376</v>
+      </c>
+      <c r="J74" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" t="s">
+        <v>125</v>
+      </c>
+      <c r="C75" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.01146371853447093</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.14123301234468186</v>
+      </c>
+      <c r="G75" t="n">
+        <v>6.432246998284734</v>
+      </c>
+      <c r="H75" t="n">
+        <v>28.742934010805463</v>
+      </c>
+      <c r="I75" t="s">
+        <v>377</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>83</v>
+      </c>
+      <c r="B76" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" t="s">
+        <v>202</v>
+      </c>
+      <c r="D76" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.004175495185413075</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.14137033699184268</v>
+      </c>
+      <c r="G76" t="n">
+        <v>20.661157024793386</v>
+      </c>
+      <c r="H76" t="n">
+        <v>113.1926099261991</v>
+      </c>
+      <c r="I76" t="s">
+        <v>368</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B77" t="s">
+        <v>121</v>
+      </c>
+      <c r="C77" t="s">
+        <v>203</v>
+      </c>
+      <c r="D77" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.003083686517640435</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.14555000363262854</v>
+      </c>
+      <c r="G77" t="n">
+        <v>10.330578512396693</v>
+      </c>
+      <c r="H77" t="n">
+        <v>59.727577235785866</v>
+      </c>
+      <c r="I77" t="s">
+        <v>341</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" t="s">
+        <v>311</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.00223970910906477</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.15102038563979595</v>
+      </c>
+      <c r="G78" t="n">
+        <v>11.556240369799692</v>
+      </c>
+      <c r="H78" t="n">
+        <v>70.50935227549284</v>
+      </c>
+      <c r="I78" t="s">
+        <v>356</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" t="s">
+        <v>312</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.0019362723227191276</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.15232008938723804</v>
+      </c>
+      <c r="G79" t="n">
+        <v>30.3030303030303</v>
+      </c>
+      <c r="H79" t="n">
+        <v>189.30274658964453</v>
+      </c>
+      <c r="I79" t="s">
+        <v>368</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" t="s">
+        <v>126</v>
+      </c>
+      <c r="C80" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" t="s">
+        <v>313</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.005808010147143567</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.15294426720811394</v>
+      </c>
+      <c r="G80" t="n">
+        <v>17.482517482517483</v>
+      </c>
+      <c r="H80" t="n">
+        <v>90.00904290845187</v>
+      </c>
+      <c r="I80" t="s">
+        <v>368</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" t="s">
+        <v>282</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.0029528272890924027</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.15485938671684601</v>
+      </c>
+      <c r="G81" t="n">
+        <v>10.48951048951049</v>
+      </c>
+      <c r="H81" t="n">
+        <v>61.10131641108294</v>
+      </c>
+      <c r="I81" t="s">
+        <v>378</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" t="s">
+        <v>311</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.00223970910906477</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1631788065175761</v>
+      </c>
+      <c r="G82" t="n">
+        <v>11.556240369799692</v>
+      </c>
+      <c r="H82" t="n">
+        <v>70.50935227549284</v>
+      </c>
+      <c r="I82" t="s">
+        <v>379</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" t="s">
         <v>209</v>
       </c>
-      <c r="E69" t="n">
-        <v>0.023756367664392986</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.19775570920629837</v>
-      </c>
-      <c r="G69" t="n">
-        <v>8.385744234800839</v>
-      </c>
-      <c r="H69" t="n">
-        <v>31.36188404404334</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="D83" t="s">
+        <v>269</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.002350148364202249</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.16344213623770185</v>
+      </c>
+      <c r="G83" t="n">
+        <v>11.363636363636363</v>
+      </c>
+      <c r="H83" t="n">
+        <v>68.78723658086174</v>
+      </c>
+      <c r="I83" t="s">
+        <v>354</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" t="s">
+        <v>301</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0027973432696242373</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.1646128924048109</v>
+      </c>
+      <c r="G84" t="n">
+        <v>25.25252525252525</v>
+      </c>
+      <c r="H84" t="n">
+        <v>148.4617460733415</v>
+      </c>
+      <c r="I84" t="s">
+        <v>380</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" t="s">
+        <v>211</v>
+      </c>
+      <c r="D85" t="s">
+        <v>314</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.0019394734313988326</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.16485524166890075</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.5304501323918798</v>
+      </c>
+      <c r="H85" t="n">
+        <v>22.04885708689818</v>
+      </c>
+      <c r="I85" t="s">
+        <v>381</v>
+      </c>
+      <c r="J85" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" t="s">
+        <v>126</v>
+      </c>
+      <c r="C86" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" t="s">
+        <v>310</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.004175495185413075</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.16493205982381645</v>
+      </c>
+      <c r="G86" t="n">
+        <v>20.661157024793386</v>
+      </c>
+      <c r="H86" t="n">
+        <v>113.1926099261991</v>
+      </c>
+      <c r="I86" t="s">
+        <v>368</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>121</v>
+      </c>
+      <c r="C87" t="s">
+        <v>213</v>
+      </c>
+      <c r="D87" t="s">
+        <v>301</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.0027973432696242373</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.16504325290783</v>
+      </c>
+      <c r="G87" t="n">
+        <v>25.25252525252525</v>
+      </c>
+      <c r="H87" t="n">
+        <v>148.4617460733415</v>
+      </c>
+      <c r="I87" t="s">
+        <v>382</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" t="s">
+        <v>126</v>
+      </c>
+      <c r="C88" t="s">
+        <v>214</v>
+      </c>
+      <c r="D88" t="s">
+        <v>301</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0027973432696242373</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.16574258872523606</v>
+      </c>
+      <c r="G88" t="n">
+        <v>25.25252525252525</v>
+      </c>
+      <c r="H88" t="n">
+        <v>148.4617460733415</v>
+      </c>
+      <c r="I88" t="s">
+        <v>368</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+      <c r="B89" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" t="s">
+        <v>215</v>
+      </c>
+      <c r="D89" t="s">
+        <v>315</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.002493640221385313</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.16588128429215343</v>
+      </c>
+      <c r="G89" t="n">
+        <v>26.7379679144385</v>
+      </c>
+      <c r="H89" t="n">
+        <v>160.26769250787964</v>
+      </c>
+      <c r="I89" t="s">
+        <v>383</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" t="s">
+        <v>216</v>
+      </c>
+      <c r="D90" t="s">
+        <v>316</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.002084303979600123</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.16784132046253622</v>
+      </c>
+      <c r="G90" t="n">
+        <v>3.489792357354737</v>
+      </c>
+      <c r="H90" t="n">
+        <v>21.543606010107617</v>
+      </c>
+      <c r="I90" t="s">
+        <v>384</v>
+      </c>
+      <c r="J90" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D91" t="s">
+        <v>317</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0022065667454690572</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.16880235602838287</v>
+      </c>
+      <c r="G91" t="n">
+        <v>28.409090909090907</v>
+      </c>
+      <c r="H91" t="n">
+        <v>173.75901932488804</v>
+      </c>
+      <c r="I91" t="s">
+        <v>385</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" t="s">
         <v>218</v>
       </c>
-      <c r="J69" t="n">
+      <c r="D92" t="s">
+        <v>299</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.003117527372663636</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.17035060286340584</v>
+      </c>
+      <c r="G92" t="n">
+        <v>23.923444976076553</v>
+      </c>
+      <c r="H92" t="n">
+        <v>138.0553851704183</v>
+      </c>
+      <c r="I92" t="s">
+        <v>368</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" t="s">
+        <v>219</v>
+      </c>
+      <c r="D93" t="s">
+        <v>301</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.0027973432696242373</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1711974081010033</v>
+      </c>
+      <c r="G93" t="n">
+        <v>25.25252525252525</v>
+      </c>
+      <c r="H93" t="n">
+        <v>148.4617460733415</v>
+      </c>
+      <c r="I93" t="s">
+        <v>386</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>101</v>
+      </c>
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C94" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" t="s">
+        <v>318</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.001446623413914828</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.17142487454890712</v>
+      </c>
+      <c r="G94" t="n">
+        <v>34.96503496503497</v>
+      </c>
+      <c r="H94" t="n">
+        <v>228.61968944756822</v>
+      </c>
+      <c r="I94" t="s">
+        <v>368</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>125</v>
+      </c>
+      <c r="C95" t="s">
+        <v>221</v>
+      </c>
+      <c r="D95" t="s">
+        <v>319</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.015953264064238092</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.175485904706619</v>
+      </c>
+      <c r="G95" t="n">
+        <v>4.1511000415109995</v>
+      </c>
+      <c r="H95" t="n">
+        <v>17.177633155508566</v>
+      </c>
+      <c r="I95" t="s">
+        <v>387</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" t="s">
+        <v>299</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.003117527372663636</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1766598844509394</v>
+      </c>
+      <c r="G96" t="n">
+        <v>23.923444976076553</v>
+      </c>
+      <c r="H96" t="n">
+        <v>138.0553851704183</v>
+      </c>
+      <c r="I96" t="s">
+        <v>368</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>104</v>
+      </c>
+      <c r="B97" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" t="s">
+        <v>280</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.003355976815386773</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.17705670784626767</v>
+      </c>
+      <c r="G97" t="n">
+        <v>10.026737967914439</v>
+      </c>
+      <c r="H97" t="n">
+        <v>57.12245052280591</v>
+      </c>
+      <c r="I97" t="s">
+        <v>388</v>
+      </c>
+      <c r="J97" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B98" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" t="s">
+        <v>301</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0027973432696242373</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.17833063343854513</v>
+      </c>
+      <c r="G98" t="n">
+        <v>25.25252525252525</v>
+      </c>
+      <c r="H98" t="n">
+        <v>148.4617460733415</v>
+      </c>
+      <c r="I98" t="s">
+        <v>362</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>106</v>
+      </c>
+      <c r="B99" t="s">
+        <v>121</v>
+      </c>
+      <c r="C99" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" t="s">
+        <v>320</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0075667660576629195</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1785756789608449</v>
+      </c>
+      <c r="G99" t="n">
+        <v>7.492507492507492</v>
+      </c>
+      <c r="H99" t="n">
+        <v>36.59332798108294</v>
+      </c>
+      <c r="I99" t="s">
+        <v>341</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>107</v>
+      </c>
+      <c r="B100" t="s">
+        <v>121</v>
+      </c>
+      <c r="C100" t="s">
+        <v>226</v>
+      </c>
+      <c r="D100" t="s">
+        <v>321</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.007193831196325281</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.17870991182450172</v>
+      </c>
+      <c r="G100" t="n">
+        <v>15.67398119122257</v>
+      </c>
+      <c r="H100" t="n">
+        <v>77.3437523274699</v>
+      </c>
+      <c r="I100" t="s">
+        <v>382</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>108</v>
+      </c>
+      <c r="B101" t="s">
+        <v>123</v>
+      </c>
+      <c r="C101" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" t="s">
+        <v>322</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.004579660699997298</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.17966361207681708</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2.8213166144200623</v>
+      </c>
+      <c r="H101" t="n">
+        <v>15.195979090637334</v>
+      </c>
+      <c r="I101" t="s">
+        <v>389</v>
+      </c>
+      <c r="J101" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" t="s">
+        <v>323</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0038816553160050116</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.17996765556023236</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4.815100154083204</v>
+      </c>
+      <c r="H102" t="n">
+        <v>26.730997633332002</v>
+      </c>
+      <c r="I102" t="s">
+        <v>390</v>
+      </c>
+      <c r="J102" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>123</v>
+      </c>
+      <c r="C103" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" t="s">
+        <v>324</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.004241527998131693</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.18026493992059694</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4.715201810637494</v>
+      </c>
+      <c r="H103" t="n">
+        <v>25.758353912394295</v>
+      </c>
+      <c r="I103" t="s">
+        <v>390</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>123</v>
+      </c>
+      <c r="C104" t="s">
+        <v>230</v>
+      </c>
+      <c r="D104" t="s">
+        <v>325</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.004391945149681561</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.18161286700034562</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4.676393565282454</v>
+      </c>
+      <c r="H104" t="n">
+        <v>25.383385070805556</v>
+      </c>
+      <c r="I104" t="s">
+        <v>390</v>
+      </c>
+      <c r="J104" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>112</v>
+      </c>
+      <c r="B105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" t="s">
+        <v>231</v>
+      </c>
+      <c r="D105" t="s">
+        <v>310</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.004175495185413075</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.18252878953377158</v>
+      </c>
+      <c r="G105" t="n">
+        <v>20.661157024793386</v>
+      </c>
+      <c r="H105" t="n">
+        <v>113.1926099261991</v>
+      </c>
+      <c r="I105" t="s">
+        <v>362</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" t="s">
+        <v>232</v>
+      </c>
+      <c r="D106" t="s">
+        <v>305</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0045601374272080065</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.183605533253375</v>
+      </c>
+      <c r="G106" t="n">
+        <v>19.76284584980237</v>
+      </c>
+      <c r="H106" t="n">
+        <v>106.52969403882122</v>
+      </c>
+      <c r="I106" t="s">
+        <v>386</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+      <c r="B107" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" t="s">
+        <v>323</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0038816553160050116</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.18559164479648962</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4.815100154083204</v>
+      </c>
+      <c r="H107" t="n">
+        <v>26.730997633332002</v>
+      </c>
+      <c r="I107" t="s">
+        <v>390</v>
+      </c>
+      <c r="J107" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>123</v>
+      </c>
+      <c r="C108" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" t="s">
+        <v>310</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.004175495185413075</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.18789728334358838</v>
+      </c>
+      <c r="G108" t="n">
+        <v>20.661157024793386</v>
+      </c>
+      <c r="H108" t="n">
+        <v>113.1926099261991</v>
+      </c>
+      <c r="I108" t="s">
+        <v>362</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>123</v>
+      </c>
+      <c r="C109" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" t="s">
+        <v>323</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0038816553160050116</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.19157847204798928</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4.815100154083204</v>
+      </c>
+      <c r="H109" t="n">
+        <v>26.730997633332002</v>
+      </c>
+      <c r="I109" t="s">
+        <v>390</v>
+      </c>
+      <c r="J109" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" t="s">
+        <v>326</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0020094881450016303</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.19341323395640692</v>
+      </c>
+      <c r="G110" t="n">
+        <v>7.513148009015778</v>
+      </c>
+      <c r="H110" t="n">
+        <v>46.655711822457484</v>
+      </c>
+      <c r="I110" t="s">
+        <v>391</v>
+      </c>
+      <c r="J110" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" t="s">
+        <v>327</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.008713842875172626</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.19585399224197522</v>
+      </c>
+      <c r="G111" t="n">
+        <v>14.204545454545453</v>
+      </c>
+      <c r="H111" t="n">
+        <v>67.36992020963832</v>
+      </c>
+      <c r="I111" t="s">
+        <v>392</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0038816553160050116</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.1979644211162556</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4.815100154083204</v>
+      </c>
+      <c r="H112" t="n">
+        <v>26.730997633332002</v>
+      </c>
+      <c r="I112" t="s">
+        <v>390</v>
+      </c>
+      <c r="J112" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" t="s">
+        <v>239</v>
+      </c>
+      <c r="D113" t="s">
+        <v>328</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.009249694633554444</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.19844799395625898</v>
+      </c>
+      <c r="G113" t="n">
+        <v>13.774104683195592</v>
+      </c>
+      <c r="H113" t="n">
+        <v>64.50640138555701</v>
+      </c>
+      <c r="I113" t="s">
+        <v>393</v>
+      </c>
+      <c r="J113" t="n">
         <v>2.0</v>
       </c>
     </row>
